--- a/outputs/ROME4.xlsx
+++ b/outputs/ROME4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some project information. There is no clear indication or direct link about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would need more explicit guidance or a clear path to find information about filing an issue. Additionally, her low computer self-efficacy means she might not feel confident navigating through unrelated information to find the relevant details.</t>
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about how to file an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she is likely to read the README to gather necessary information. The page clearly lists the README.md file, making it accessible for Abi to read and find relevant details about filing an issue.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she would likely consider reading the README as a logical step to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page clearly lists the README file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide explicit instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and detailed steps to feel confident that she is making progress. Additionally, her low computer self-efficacy means she might feel uncertain and frustrated if the necessary information is not readily available.</t>
+Why: After reading the README file, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions or a direct link to file an issue. Given Abi's comprehensive information processing style, she would need detailed and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, leading to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions "Contribute.md" under the "Want to help?" section, which suggests it contains information for contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she is likely to recognize that clicking on "Contribute.md" will provide relevant information about contributing to the project, including potentially how to file an issue. The page is clear and directs her to a specific document that is likely to contain the information she needs.</t>
+Why: The page explicitly mentions "Want to contribute and not sure how to start? Please read the Contribute.md" under the "Want to help?" section. This clear instruction aligns with Abi's comprehensive information processing style and her preference for process-oriented learning. The presence of a direct link to the Contribute.md file provides a clear next step, making it likely that Abi will know what to do and feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report a problem or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal and has found the information she needs. The instructions are explicit and easy to follow, which will help Abi feel confident that she is on the right track.</t>
+Why: The Contribute.md file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses the subgoal of finding information about how to file an issue. Given Abi's comprehensive information processing style, she will appreciate the detailed steps provided. Additionally, her preference for process-oriented learning is well-supported by the structured and step-by-step format of the Contribute.md file. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which directly addresses the subgoal of filing an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she will recognize that filing the issue is a necessary step toward achieving the overall use case of having a merge request template. The instructions provided are clear and detailed, making it evident that this is the correct step to take.</t>
+Why: The Contribute.md file contains a specific section titled "File an issue," which provides clear instructions on how to file an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The detailed steps and direct guidance will help Abi understand that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. Therefore, she will recognize this as a step toward her goal.</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that clicking on the link to the list of issues is the next logical step in the process of filing an issue. The page is well-structured and provides explicit guidance, making it clear what Abi needs to do next.</t>
+Why: The Contribute.md file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning. The explicit mention of creating a "New Issue" and the link to the issues page will guide Abi to know what to do next and feel confident in taking this action. The page is good enough for Abi to take this action because it provides the necessary information and direct guidance.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is on the right page to view the list of issues, the page does not provide explicit instructions on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear and detailed steps to feel confident that she is making progress. Additionally, her low computer self-efficacy means she might feel uncertain about what to do next without explicit guidance. The presence of a "New issue" button might not be immediately obvious or intuitive for her to click without further instructions.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon landing on the list of issues page, Abi will see a clear "New issue" button at the top right corner of the page. This aligns with her motivation to accomplish her task and her comprehensive information processing style. The presence of the "New issue" button provides a clear next step, indicating that she is making progress toward her goal of filing an issue. The page is straightforward and provides the necessary information for Abi to proceed with filing the issue.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in green at the top right of the page, making it visually distinct and easy to identify. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the next logical step in filing an issue. The page is clear and provides a straightforward action for her to take, which aligns with her need for explicit guidance.</t>
+Why: The "New issue" button is prominently displayed at the top right corner of the page, making it easy for Abi to identify the next step. This aligns with her comprehensive information processing style, as the button is clearly labeled and positioned, reducing any ambiguity. Additionally, her preference for process-oriented learning is supported by the straightforward and intuitive design of the page, guiding her to take the action of clicking the "New issue" button. The page is good enough for Abi to take this action because it provides a clear and direct path to proceed.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi is taken to a straightforward form where she can enter the title and description of the issue. The page is clear and provides all the necessary fields to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is making progress toward her goal. The form is intuitive and provides a clear path to complete the task, ensuring that Abi knows she is on the right track and has all the information she needs to file the issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "New issue," Abi lands on a page with a clear and straightforward form to create a new issue. The form includes fields for the title, type, and description, along with a "Create issue" button. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The page provides all the necessary fields and options to file an issue, making it clear that she is making progress toward her goal. The simplicity and clarity of the form ensure that Abi will know she did the right thing and has all the information she needs to complete the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that filling out the form and clicking "Create issue" is the next step. The page provides all the necessary information and guidance for her to complete the task confidently.</t>
+Why: The form on the "New Issue" page is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. This aligns with Abi's comprehensive information processing style, as the form provides all the necessary fields and options in a clear and organized manner. Additionally, her preference for process-oriented learning is supported by the intuitive design of the form, guiding her through the steps to file the issue. The page is good enough for Abi to take this action because it provides clear instructions and a simple interface for submitting the issue.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi is taken to a confirmation page that shows the newly created issue with all the details she entered. The page clearly indicates that the issue has been created, with a status of "Open" and the title and description she provided. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has successfully filed the issue and is making progress toward her goal. The confirmation page provides all the necessary information to assure her that she did the right thing.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After submitting the issue, Abi lands on a confirmation page that clearly shows the newly created issue with a status of "Open" and a message indicating that the issue was created. This provides immediate feedback that she has successfully filed the issue, aligning with her motivation to accomplish her task. The page also includes details about the issue, such as the title, description, and activity section, which supports her comprehensive information processing style by providing all relevant information in one place. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will have all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME4.xlsx
+++ b/outputs/ROME4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to information about how to file an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or guidance on this page would likely deter ABI from thinking this is the right step.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she would likely consider reading the README as a logical step to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page clearly lists the README file, making it accessible for Abi to take this action.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize the README.md as a potential source of detailed instructions. The page clearly lists the README.md file, making it accessible for ABI to read and gather the necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README file, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions or a direct link to file an issue. Given Abi's comprehensive information processing style, she would need detailed and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, leading to uncertainty about whether she is on the right track.</t>
+Why: After reading the README.md file, ABI would not find specific information about how to file an issue. The page provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, would not feel confident that they are making progress toward their goal of filing an issue. The lack of explicit guidance would likely leave ABI uncertain about the next steps.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions "Want to contribute and not sure how to start? Please read the Contribute.md" under the "Want to help?" section. This clear instruction aligns with Abi's comprehensive information processing style and her preference for process-oriented learning. The presence of a direct link to the Contribute.md file provides a clear next step, making it likely that Abi will know what to do and feel confident in taking this action.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a relevant and useful resource. The clear labeling and context provided on the page would guide ABI to click on the "Contribute.md" file to find detailed instructions on how to file an issue.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses the subgoal of finding information about how to file an issue. Given Abi's comprehensive information processing style, she will appreciate the detailed steps provided. Additionally, her preference for process-oriented learning is well-supported by the structured and step-by-step format of the Contribute.md file. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which aligns with ABI's need for comprehensive information and process-oriented learning. ABI will know that they are making progress toward their goal and will have all the necessary information to file an issue, as the instructions are explicitly provided in a structured manner.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Contribute.md file contains a specific section titled "File an issue," which provides clear instructions on how to file an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The detailed steps and direct guidance will help Abi understand that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. Therefore, she will recognize this as a step toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a necessary step toward achieving the overall use case. The detailed guidance aligns with ABI's motivations to accomplish tasks using familiar and well-documented methods. Therefore, ABI would consider this a step toward filing the issue.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning. The explicit mention of creating a "New Issue" and the link to the issues page will guide Abi to know what to do next and feel confident in taking this action. The page is good enough for Abi to take this action because it provides the necessary information and direct guidance.</t>
+Why: The "Contribute.md" file provides clear instructions on filing an issue, including the step to go to the list of issues. ABI, who prefers comprehensive information and process-oriented learning, would understand that navigating to the list of issues is a necessary step in the process. The instructions are explicit and structured, making it clear to ABI what needs to be done next. The page is good enough for ABI to take this action because it provides the required guidance in a straightforward manner.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon landing on the list of issues page, Abi will see a clear "New issue" button at the top right corner of the page. This aligns with her motivation to accomplish her task and her comprehensive information processing style. The presence of the "New issue" button provides a clear next step, indicating that she is making progress toward her goal of filing an issue. The page is straightforward and provides the necessary information for Abi to proceed with filing the issue.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon reaching the list of issues, ABI will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file. ABI, who prefers comprehensive information and process-oriented learning, will recognize that they are on the correct page to file a new issue. The presence of the "New issue" button provides a clear next step, confirming to ABI that they are making progress toward their goal and have the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed at the top right corner of the page, making it easy for Abi to identify the next step. This aligns with her comprehensive information processing style, as the button is clearly labeled and positioned, reducing any ambiguity. Additionally, her preference for process-oriented learning is supported by the straightforward and intuitive design of the page, guiding her to take the action of clicking the "New issue" button. The page is good enough for Abi to take this action because it provides a clear and direct path to proceed.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI, who prefers comprehensive information and process-oriented learning, will recognize this as the next logical step in the process of filing an issue. The page is straightforward and provides a clear call to action, which aligns with ABI's need for explicit guidance. Therefore, ABI will know what to do at this step and will feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "New issue," Abi lands on a page with a clear and straightforward form to create a new issue. The form includes fields for the title, type, and description, along with a "Create issue" button. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The page provides all the necessary fields and options to file an issue, making it clear that she is making progress toward her goal. The simplicity and clarity of the form ensure that Abi will know she did the right thing and has all the information she needs to complete the task.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," ABI lands on a straightforward form to create a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. ABI, who prefers comprehensive information and process-oriented learning, will recognize that they are on the correct page to file the issue. The clear layout and labeled fields provide all the necessary information to proceed, confirming to ABI that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form on the "New Issue" page is straightforward and clearly labeled, with fields for the title, type, and description of the issue. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. This aligns with Abi's comprehensive information processing style, as the form provides all the necessary fields and options in a clear and organized manner. Additionally, her preference for process-oriented learning is supported by the intuitive design of the form, guiding her through the steps to file the issue. The page is good enough for Abi to take this action because it provides clear instructions and a simple interface for submitting the issue.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and process-oriented learning, will understand that they need to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take next. The page provides all the necessary information and guidance for ABI to complete the task, ensuring they know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After submitting the issue, Abi lands on a confirmation page that clearly shows the newly created issue with a status of "Open" and a message indicating that the issue was created. This provides immediate feedback that she has successfully filed the issue, aligning with her motivation to accomplish her task. The page also includes details about the issue, such as the title, description, and activity section, which supports her comprehensive information processing style by providing all relevant information in one place. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will have all the information she needs.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, ABI lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details of the issue displayed. This immediate feedback confirms to ABI that they have successfully filed the issue and are making progress toward their goal. The page provides all the necessary information, including the issue title, description, and activity section, ensuring ABI knows they did the right thing and have completed the task correctly.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME4.xlsx
+++ b/outputs/ROME4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or guidance on this page would likely deter ABI from thinking this is the right step.</t>
+Why: The page shown is a repository view with various files and folders listed. There is no clear indication or information about how to file an issue. ABI, who prefers comprehensive information and is risk-averse, would not find this page helpful for understanding how to file an issue. The lack of explicit instructions or guidance on this page would likely demotivate ABI from considering this as a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize the README.md as a potential source of detailed instructions. The page clearly lists the README.md file, making it accessible for ABI to read and gather the necessary information.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize the README as a valuable resource to read for understanding how to file an issue. The README section on this page includes a "Contribute" section, which suggests it might contain relevant information for ABI's subgoal.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README.md file, ABI would not find specific information about how to file an issue. The page provides general information about the project, technologies used, and contact points but does not include detailed instructions on filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, would not feel confident that they are making progress toward their goal of filing an issue. The lack of explicit guidance would likely leave ABI uncertain about the next steps.</t>
+Why: While the README file does contain a "Contribute" section, it does not provide specific instructions on how to file an issue. The information provided is more general and does not directly address ABI's subgoal of finding out how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not feel confident that they are making progress toward their goal based on the information available in the README. The lack of detailed, step-by-step instructions would likely leave ABI uncertain about the next steps.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a relevant and useful resource. The clear labeling and context provided on the page would guide ABI to click on the "Contribute.md" file to find detailed instructions on how to file an issue.</t>
+Why: The README file explicitly mentions a "contribute.md" file, which suggests it contains documentation for contributions. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize that clicking on the "contribute.md" file could provide detailed instructions on how to file an issue. The presence of this file and its likely relevance to ABI's subgoal makes the page good enough for ABI to take this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which aligns with ABI's need for comprehensive information and process-oriented learning. ABI will know that they are making progress toward their goal and will have all the necessary information to file an issue, as the instructions are explicitly provided in a structured manner.</t>
+Why: The "contribute.md" file provides a clear section titled "File an issue," which directly addresses ABI's subgoal. It includes specific instructions on how to file an issue, such as creating a "New Issue" and providing details. This aligns with ABI's preference for comprehensive information and process-oriented learning. ABI will know that they did the right thing and are making progress toward their goal because the instructions are explicit and directly relevant to filing an issue.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a necessary step toward achieving the overall use case. The detailed guidance aligns with ABI's motivations to accomplish tasks using familiar and well-documented methods. Therefore, ABI would consider this a step toward filing the issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "contribute.md" file contains a clear section titled "File an issue," which provides specific instructions on how to file an issue. This directly aligns with ABI's subgoal of filing an issue. The detailed steps and clear guidance would help ABI understand that this is a necessary step toward achieving the overall use case. Given ABI's preference for comprehensive information, this page provides the necessary details to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions on filing an issue, including the step to go to the list of issues. ABI, who prefers comprehensive information and process-oriented learning, would understand that navigating to the list of issues is a necessary step in the process. The instructions are explicit and structured, making it clear to ABI what needs to be done next. The page is good enough for ABI to take this action because it provides the required guidance in a straightforward manner.</t>
+Why: The "contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. ABI, who prefers comprehensive information and process-oriented learning, would understand that going to the list of issues is the next logical step in the process of filing an issue. The page is good enough for ABI to take this action because it provides explicit guidance on what to do next, reducing uncertainty and aligning with ABI's need for clear, step-by-step instructions.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon reaching the list of issues, ABI will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file. ABI, who prefers comprehensive information and process-oriented learning, will recognize that they are on the correct page to file a new issue. The presence of the "New issue" button provides a clear next step, confirming to ABI that they are making progress toward their goal and have the necessary information to proceed.</t>
+Why: Upon reaching the list of issues, ABI will see a clear "New issue" button at the top right of the page. This aligns with the instructions provided in the "contribute.md" file, confirming that ABI is on the right track. The presence of the "New issue" button provides a clear next step, making it evident that ABI is making progress toward their goal of filing an issue. The page is straightforward and provides the necessary information for ABI to continue with the task.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI, who prefers comprehensive information and process-oriented learning, will recognize this as the next logical step in the process of filing an issue. The page is straightforward and provides a clear call to action, which aligns with ABI's need for explicit guidance. Therefore, ABI will know what to do at this step and will feel confident in taking this action.</t>
+Why: The "New issue" button is prominently displayed at the top right of the page, making it easy for ABI to identify the next step. The instructions in the "contribute.md" file have already guided ABI to this point, and the clear labeling of the button aligns with ABI's preference for comprehensive information and process-oriented learning. The page is straightforward and provides a clear call to action, making it suitable for ABI to proceed with filing the issue.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," ABI lands on a straightforward form to create a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. ABI, who prefers comprehensive information and process-oriented learning, will recognize that they are on the correct page to file the issue. The clear layout and labeled fields provide all the necessary information to proceed, confirming to ABI that they are making progress toward their goal.</t>
+Why: The "New Issue" page provides a clear and straightforward form for ABI to fill out, including fields for the title, type, and description of the issue. This aligns with the instructions provided in the "contribute.md" file, confirming that ABI is on the right track. The form is simple and intuitive, making it easy for ABI to understand that they are making progress toward their goal of filing an issue. The page provides all the necessary fields and options to complete the task, ensuring ABI has all the information needed to proceed.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and process-oriented learning, will understand that they need to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take next. The page provides all the necessary information and guidance for ABI to complete the task, ensuring they know what to do at this step.</t>
+Why: The "New Issue" form is straightforward and clearly labeled, with fields for the title, type, and description of the issue. ABI, who prefers comprehensive information and process-oriented learning, will understand that they need to fill out these fields to file the issue. The "Create issue" button at the bottom of the form provides a clear call to action. The page is simple and intuitive, making it easy for ABI to know what to do at this step and proceed with confidence.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, ABI lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details of the issue displayed. This immediate feedback confirms to ABI that they have successfully filed the issue and are making progress toward their goal. The page provides all the necessary information, including the issue title, description, and activity section, ensuring ABI knows they did the right thing and have completed the task correctly.</t>
+Why: After submitting the issue, ABI is taken to a confirmation page that shows the newly created issue with a status of "Open" and the details they entered. This immediate feedback confirms that ABI has successfully filed the issue, providing a clear indication that they did the right thing and are making progress toward their goal. The page is straightforward and provides all the necessary information, ensuring ABI knows the task is complete and successful.</t>
         </is>
       </c>
     </row>
